--- a/astro2020_sciencewp.xlsx
+++ b/astro2020_sciencewp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="2560" windowWidth="25620" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="1620" windowWidth="25620" windowHeight="14980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20190620153134-SurveyExport" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="3441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="3444">
   <si>
     <t>Response ID</t>
   </si>
@@ -10344,6 +10344,15 @@
   </si>
   <si>
     <t>http://surveygizmoresponseuploads.s3.amazonaws.com/fileuploads/623127/4458621/195-aa3fba92db408ba8512e3372bf67a371_NewmanJeffreyA.pdf</t>
+  </si>
+  <si>
+    <t>Light blue = tangentially related (green)</t>
+  </si>
+  <si>
+    <t>Purple = related (blue)</t>
+  </si>
+  <si>
+    <t>Green = directly related (red)</t>
   </si>
 </sst>
 </file>
@@ -10373,7 +10382,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10398,6 +10407,30 @@
         <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF99FF33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF0000CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -10415,24 +10448,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10764,8 +10885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="A489" sqref="A489:XFD489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -26776,104 +26897,956 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z3"/>
+  <dimension ref="A2:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A2" s="1">
+    <row r="2" spans="1:26" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="7" customFormat="1">
+      <c r="A3" s="7" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="4">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="4">
         <v>54</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="4">
+        <v>332</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="4">
+        <v>338</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="4">
+        <v>369</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>389</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>608</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3302</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>3303</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>59</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="6">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="6">
+        <v>140</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>205</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="6">
+        <v>249</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>476</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>2628</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>2629</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>112</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>122</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A27" s="3">
+        <v>150</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="3">
+        <v>179</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="3">
+        <v>376</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A30" s="3">
+        <v>533</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/astro2020_sciencewp.xlsx
+++ b/astro2020_sciencewp.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1620" windowWidth="25620" windowHeight="14980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="520" windowWidth="28140" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20190620153134-SurveyExport" sheetId="1" r:id="rId1"/>
     <sheet name="Relevant Papers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="3444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="3444">
   <si>
     <t>Response ID</t>
   </si>
@@ -10382,7 +10382,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10431,8 +10431,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -10447,8 +10459,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10496,18 +10523,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -10531,6 +10568,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -10554,6 +10592,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10885,8 +10924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="A489" sqref="A489:XFD489"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -26899,19 +26938,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="68.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:26" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>3441</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:26" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>3442</v>
       </c>
     </row>
@@ -26920,929 +26964,958 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="4">
+    <row r="6" spans="1:26" s="6" customFormat="1" ht="63" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="7">
         <v>51</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="7">
         <v>54</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="7">
         <v>332</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>1844</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>1845</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>1846</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>1847</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>1848</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>1849</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="7">
         <v>338</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>1870</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>1871</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>1872</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>1873</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>1874</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>1875</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>1876</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="7">
         <v>369</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>2041</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>2042</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>1661</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>2043</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>2044</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>2045</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>2046</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="7">
         <v>389</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>2146</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>2147</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>2148</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>2149</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>2150</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>2151</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="7">
         <v>608</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>3298</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>3299</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>3300</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>3301</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>3302</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>3303</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="6">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" s="9" customFormat="1"/>
+    <row r="15" spans="1:26" s="9" customFormat="1"/>
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A16" s="10">
         <v>59</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="6">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+    </row>
+    <row r="17" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="10">
         <v>65</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="6">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="10">
         <v>140</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="6">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="10">
         <v>205</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>1162</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="10" t="s">
         <v>1163</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="10" t="s">
         <v>1165</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="6">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+    </row>
+    <row r="20" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="10">
         <v>249</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>1401</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="10" t="s">
         <v>1404</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="10" t="s">
         <v>1405</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="6">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+    </row>
+    <row r="21" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="10">
         <v>476</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="10" t="s">
         <v>2626</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="10" t="s">
         <v>2627</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="10" t="s">
         <v>2628</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="10" t="s">
         <v>2629</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="10" t="s">
         <v>2630</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="3">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+    </row>
+    <row r="22" spans="1:26" s="9" customFormat="1"/>
+    <row r="23" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A23" s="12">
         <v>75</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="3">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A24" s="12">
         <v>77</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="3">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A25" s="12">
         <v>112</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="3">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A26" s="12">
         <v>122</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="3">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A27" s="12">
         <v>150</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="12" t="s">
         <v>844</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="3">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A28" s="12">
         <v>179</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="12" t="s">
         <v>1005</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="12" t="s">
         <v>1009</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="3">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A29" s="12">
         <v>376</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="12" t="s">
         <v>2083</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="12" t="s">
         <v>2084</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="12" t="s">
         <v>2085</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="12" t="s">
         <v>2086</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="12" t="s">
         <v>2087</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="3">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="12">
         <v>533</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="12" t="s">
         <v>2930</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="12" t="s">
         <v>2931</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="12" t="s">
         <v>2932</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="12" t="s">
         <v>2933</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="12" t="s">
         <v>2934</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="12" t="s">
         <v>2935</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
